--- a/lesson10-13/abc.xlsx
+++ b/lesson10-13/abc.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,8 +28,11 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -38,7 +41,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
+        <fgColor rgb="00516E41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F17C67"/>
       </patternFill>
     </fill>
   </fills>
@@ -60,12 +68,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -489,7 +498,7 @@
       <c r="D2" t="n">
         <v>75</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="3" t="n">
         <v>99</v>
       </c>
       <c r="F2" t="n">
@@ -509,7 +518,7 @@
       <c r="B3" t="n">
         <v>70</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="3" t="n">
         <v>84</v>
       </c>
       <c r="D3" t="n">
@@ -535,7 +544,7 @@
       <c r="B4" t="n">
         <v>63</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="3" t="n">
         <v>83</v>
       </c>
       <c r="D4" t="n">
@@ -544,7 +553,7 @@
       <c r="E4" t="n">
         <v>72</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="3" t="n">
         <v>83</v>
       </c>
       <c r="G4" t="n">
@@ -558,7 +567,7 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="3" t="n">
         <v>92</v>
       </c>
       <c r="C5" t="n">
@@ -587,7 +596,7 @@
       <c r="B6" t="n">
         <v>61</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="3" t="n">
         <v>93</v>
       </c>
       <c r="D6" t="n">
@@ -610,7 +619,7 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="3" t="n">
         <v>82</v>
       </c>
       <c r="C7" t="n">
@@ -639,7 +648,7 @@
       <c r="B8" t="n">
         <v>83</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="3" t="n">
         <v>92</v>
       </c>
       <c r="D8" t="n">
@@ -662,7 +671,7 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="3" t="n">
         <v>73</v>
       </c>
       <c r="C9" t="n">
@@ -700,7 +709,7 @@
       <c r="E10" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="3" t="n">
         <v>99</v>
       </c>
       <c r="G10" t="n">
@@ -714,7 +723,7 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="3" t="n">
         <v>88</v>
       </c>
       <c r="C11" s="2" t="n">
@@ -740,7 +749,7 @@
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="3" t="n">
         <v>95</v>
       </c>
       <c r="C12" t="n">
@@ -752,7 +761,7 @@
       <c r="E12" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="3" t="n">
         <v>95</v>
       </c>
       <c r="G12" t="n">
@@ -772,7 +781,7 @@
       <c r="C13" t="n">
         <v>75</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="3" t="n">
         <v>80</v>
       </c>
       <c r="E13" t="n">
@@ -792,10 +801,10 @@
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="3" t="n">
         <v>90</v>
       </c>
       <c r="D14" t="n">
@@ -821,7 +830,7 @@
       <c r="B15" t="n">
         <v>72</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="3" t="n">
         <v>89</v>
       </c>
       <c r="D15" t="n">
@@ -847,7 +856,7 @@
       <c r="B16" t="n">
         <v>80</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="3" t="n">
         <v>87</v>
       </c>
       <c r="D16" t="n">
@@ -882,7 +891,7 @@
       <c r="E17" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="3" t="n">
         <v>99</v>
       </c>
       <c r="G17" t="n">
@@ -902,7 +911,7 @@
       <c r="C18" t="n">
         <v>83</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="3" t="n">
         <v>85</v>
       </c>
       <c r="E18" t="n">
@@ -931,7 +940,7 @@
       <c r="D19" t="n">
         <v>77</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="3" t="n">
         <v>98</v>
       </c>
       <c r="F19" t="n">
@@ -954,13 +963,13 @@
       <c r="C20" t="n">
         <v>65</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="3" t="n">
         <v>92</v>
       </c>
       <c r="E20" t="n">
         <v>87</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="3" t="n">
         <v>92</v>
       </c>
       <c r="G20" t="n">
@@ -986,7 +995,7 @@
       <c r="E21" t="n">
         <v>62</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="3" t="n">
         <v>90</v>
       </c>
       <c r="G21" t="n">
@@ -1012,7 +1021,7 @@
       <c r="E22" t="n">
         <v>78</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="3" t="n">
         <v>97</v>
       </c>
       <c r="G22" t="n">
@@ -1029,7 +1038,7 @@
       <c r="B23" t="n">
         <v>65</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="3" t="n">
         <v>81</v>
       </c>
       <c r="D23" t="n">
@@ -1064,7 +1073,7 @@
       <c r="E24" t="n">
         <v>84</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="3" t="n">
         <v>99</v>
       </c>
       <c r="G24" t="n">
@@ -1084,7 +1093,7 @@
       <c r="C25" t="n">
         <v>72</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="3" t="n">
         <v>98</v>
       </c>
       <c r="E25" t="n">
@@ -1113,7 +1122,7 @@
       <c r="D26" t="n">
         <v>60</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="3" t="n">
         <v>92</v>
       </c>
       <c r="F26" t="n">
@@ -1130,7 +1139,7 @@
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="3" t="n">
         <v>92</v>
       </c>
       <c r="C27" t="n">
@@ -1162,7 +1171,7 @@
       <c r="C28" t="n">
         <v>63</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="3" t="n">
         <v>98</v>
       </c>
       <c r="E28" t="n">
@@ -1188,7 +1197,7 @@
       <c r="C29" t="n">
         <v>74</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="3" t="n">
         <v>87</v>
       </c>
       <c r="E29" s="2" t="n">
@@ -1220,7 +1229,7 @@
       <c r="E30" t="n">
         <v>90</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="3" t="n">
         <v>96</v>
       </c>
       <c r="G30" t="n">
@@ -1234,7 +1243,7 @@
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="3" t="n">
         <v>95</v>
       </c>
       <c r="C31" t="n">
@@ -1269,7 +1278,7 @@
       <c r="D32" t="n">
         <v>83</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="3" t="n">
         <v>94</v>
       </c>
       <c r="F32" t="n">
@@ -1292,7 +1301,7 @@
       <c r="C33" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="3" t="n">
         <v>88</v>
       </c>
       <c r="E33" t="n">
@@ -1315,7 +1324,7 @@
       <c r="B34" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="3" t="n">
         <v>88</v>
       </c>
       <c r="D34" t="n">
@@ -1344,7 +1353,7 @@
       <c r="C35" t="n">
         <v>68</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="3" t="n">
         <v>96</v>
       </c>
       <c r="E35" t="n">
@@ -1364,7 +1373,7 @@
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="3" t="n">
         <v>92</v>
       </c>
       <c r="C36" t="n">
@@ -1396,7 +1405,7 @@
       <c r="C37" t="n">
         <v>80</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="3" t="n">
         <v>97</v>
       </c>
       <c r="E37" t="n">
@@ -1425,7 +1434,7 @@
       <c r="D38" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="3" t="n">
         <v>90</v>
       </c>
       <c r="F38" t="n">
@@ -1454,7 +1463,7 @@
       <c r="E39" t="n">
         <v>91</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" s="3" t="n">
         <v>92</v>
       </c>
       <c r="G39" t="n">
@@ -1477,7 +1486,7 @@
       <c r="D40" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="3" t="n">
         <v>95</v>
       </c>
       <c r="F40" t="n">
@@ -1503,7 +1512,7 @@
       <c r="D41" t="n">
         <v>74</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="3" t="n">
         <v>92</v>
       </c>
       <c r="F41" t="n">
@@ -1529,7 +1538,7 @@
       <c r="D42" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="3" t="n">
         <v>87</v>
       </c>
       <c r="F42" s="2" t="n">
@@ -1555,7 +1564,7 @@
       <c r="D43" t="n">
         <v>79</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="3" t="n">
         <v>86</v>
       </c>
       <c r="F43" t="n">
@@ -1584,7 +1593,7 @@
       <c r="E44" t="n">
         <v>92</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="3" t="n">
         <v>97</v>
       </c>
       <c r="G44" t="n">
@@ -1610,7 +1619,7 @@
       <c r="E45" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45" s="3" t="n">
         <v>94</v>
       </c>
       <c r="G45" t="n">
@@ -1624,7 +1633,7 @@
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="3" t="n">
         <v>95</v>
       </c>
       <c r="C46" t="n">
@@ -1650,7 +1659,7 @@
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="3" t="n">
         <v>81</v>
       </c>
       <c r="C47" t="n">
@@ -1685,7 +1694,7 @@
       <c r="D48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" s="3" t="n">
         <v>81</v>
       </c>
       <c r="F48" t="n">
@@ -1705,7 +1714,7 @@
       <c r="B49" t="n">
         <v>81</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="3" t="n">
         <v>91</v>
       </c>
       <c r="D49" t="n">
@@ -1737,7 +1746,7 @@
       <c r="D50" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50" s="3" t="n">
         <v>95</v>
       </c>
       <c r="F50" t="n">
@@ -1763,7 +1772,7 @@
       <c r="D51" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51" s="3" t="n">
         <v>93</v>
       </c>
       <c r="F51" t="n">
